--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="375">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -402,6 +402,12 @@
     <t>dataset_type</t>
   </si>
   <si>
+    <t>HiFi-Slide</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -522,12 +528,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
-    <t>HiFi-Slides</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -1308,60 +1308,72 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
   </si>
   <si>
@@ -1374,12 +1386,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
     <t>sequencing_read_format</t>
   </si>
   <si>
@@ -1500,7 +1506,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:27:02-08:00</t>
+    <t>2023-11-24T09:45:22-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1803,25 +1809,25 @@
         <v>305</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
@@ -1829,7 +1835,7 @@
         <v>50</v>
       </c>
       <c r="AV2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1951,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$12</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -2736,7 +2742,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2836,6 +2842,14 @@
       </c>
       <c r="B12" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2853,10 +2867,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -2877,18 +2891,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
@@ -2901,10 +2915,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2938,18 +2952,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -2970,66 +2984,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3082,16 +3096,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
@@ -3099,13 +3113,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="379">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -723,6 +723,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -846,6 +852,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -1506,7 +1518,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:45:22-08:00</t>
+    <t>2023-12-22T09:50:38-06:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1707,127 +1719,127 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
@@ -1835,7 +1847,7 @@
         <v>50</v>
       </c>
       <c r="AV2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1862,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$39</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1979,26 +1991,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2016,32 +2028,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2059,17 +2071,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2087,26 +2099,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2124,27 +2136,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2162,42 +2174,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2215,10 +2227,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2236,10 +2248,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2257,10 +2269,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2278,18 +2290,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2584,18 +2596,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2613,58 +2625,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2682,34 +2694,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2750,106 +2762,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2867,58 +2879,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2936,114 +2948,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3061,18 +3073,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3096,16 +3108,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
@@ -3113,13 +3125,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3265,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3371,6 +3383,14 @@
         <v>124</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3378,7 +3398,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3386,306 +3406,314 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3703,42 +3731,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3756,26 +3784,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3793,32 +3821,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="389">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -681,6 +681,12 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -765,6 +771,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -798,6 +810,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -816,6 +834,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
@@ -828,6 +852,12 @@
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -1518,7 +1548,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-12-22T09:50:38-06:00</t>
+    <t>2024-01-09T21:21:50-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1719,127 +1749,127 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
@@ -1847,7 +1877,7 @@
         <v>50</v>
       </c>
       <c r="AV2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -1862,10 +1892,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$15</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$39</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1991,26 +2021,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2028,32 +2058,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2071,17 +2101,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2099,26 +2129,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2136,27 +2166,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2174,42 +2204,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2227,10 +2257,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2248,10 +2278,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2269,10 +2299,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2290,18 +2320,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2596,18 +2626,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2625,58 +2655,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2694,34 +2724,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2762,106 +2792,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2879,58 +2909,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2948,114 +2978,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3073,18 +3103,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3108,16 +3138,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
@@ -3125,13 +3155,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3265,7 +3295,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3391,6 +3421,22 @@
         <v>126</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3398,7 +3444,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3406,314 +3452,338 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3731,42 +3801,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3784,26 +3854,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3821,32 +3891,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="397">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -681,6 +681,12 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>BGI Genomics</t>
   </si>
   <si>
@@ -729,6 +735,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -846,12 +858,24 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
     <t>DNBSEQ-T7</t>
   </si>
   <si>
@@ -948,6 +972,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1440,12 +1470,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1548,7 +1572,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-09T21:21:50-08:00</t>
+    <t>2024-01-29T14:39:37-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1676,54 +1700,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="14.234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="13.0546875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="10.45703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="9.27734375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="8.875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="17.390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="30.11328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="28.9765625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="27.81640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="23.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="28.0625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="25.5859375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="24.42578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="26.8671875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="25.70703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="25.44140625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="24.28125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="13.09375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="40.37109375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="32.83203125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" style="37" width="21.18359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" style="38" width="19.3046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" style="39" width="19.66015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" style="40" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" style="41" width="28.66015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" style="42" width="22.09375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" style="43" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" style="44" width="19.6484375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" style="45" width="16.19140625" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" style="46" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" style="47" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" style="48" width="25.23046875" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" style="49" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="12.27734375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="11.26171875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="10.9140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="9.01953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="8.00390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="7.65625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="25.9765625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="24.99609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="23.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="20.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="24.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="22.0703125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="21.0703125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="23.17578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="22.17578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="21.9453125" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="20.9453125" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="11.296875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="34.82421875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="28.32421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" style="37" width="18.2734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" style="38" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" style="39" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" style="40" width="17.18359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" style="41" width="24.72265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" style="42" width="19.05859375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" style="43" width="19.78125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" style="44" width="16.94921875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" style="45" width="13.96484375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" style="46" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" style="47" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" style="48" width="21.765625" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" style="49" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1749,135 +1773,135 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="AV2" t="s">
-        <v>381</v>
+      <c r="AV2" t="s" s="49">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -1892,10 +1916,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$17</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$42</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1909,7 +1933,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_offset'!$A$1:$A$6</formula1>
@@ -2020,27 +2044,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" t="s">
-        <v>241</v>
+      <c r="A1" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
+      <c r="A3" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2057,33 +2081,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>246</v>
+      <c r="A1" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>247</v>
+      <c r="A2" t="s" s="0">
+        <v>257</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>235</v>
+      <c r="A3" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>248</v>
+      <c r="A4" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>249</v>
+      <c r="A5" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>250</v>
+      <c r="A6" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2100,18 +2124,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>233</v>
+      <c r="A1" t="s" s="0">
+        <v>243</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>248</v>
+      <c r="A3" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2128,27 +2152,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" t="s">
-        <v>241</v>
+      <c r="A1" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
+      <c r="A3" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2165,28 +2189,28 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>254</v>
+      <c r="A1" t="s" s="0">
+        <v>264</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>237</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>255</v>
+      <c r="A4" t="s" s="0">
+        <v>265</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>256</v>
+      <c r="A5" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2203,43 +2227,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
+      <c r="A1" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>269</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>261</v>
+      <c r="A2" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>271</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
+      <c r="A3" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>265</v>
+      <c r="A4" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" t="s">
-        <v>267</v>
+      <c r="A5" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2256,11 +2280,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" t="s">
-        <v>272</v>
+      <c r="A1" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2277,11 +2301,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
+      <c r="A1" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2298,11 +2322,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
+      <c r="A1" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2319,19 +2343,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
+      <c r="A1" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>294</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>286</v>
+      <c r="A2" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2348,266 +2372,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -2625,19 +2649,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" t="s">
-        <v>289</v>
+      <c r="A1" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>299</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" t="s">
-        <v>291</v>
+      <c r="A2" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2654,59 +2678,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" t="s">
-        <v>296</v>
+      <c r="A1" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>306</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
+      <c r="A2" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>308</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" t="s">
-        <v>300</v>
+      <c r="A3" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>310</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" t="s">
-        <v>302</v>
+      <c r="A4" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>312</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>304</v>
+      <c r="A5" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>314</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" t="s">
-        <v>306</v>
+      <c r="A6" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>316</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" t="s">
-        <v>308</v>
+      <c r="A7" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2723,35 +2747,35 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" t="s">
-        <v>311</v>
+      <c r="A1" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>321</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>313</v>
+      <c r="A3" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>323</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>315</v>
+      <c r="A4" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2768,12 +2792,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -2791,107 +2815,107 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" t="s">
-        <v>321</v>
+      <c r="A1" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>331</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" t="s">
-        <v>323</v>
+      <c r="A2" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>333</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" t="s">
-        <v>325</v>
+      <c r="A3" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>335</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" t="s">
-        <v>327</v>
+      <c r="A4" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>337</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B5" t="s">
-        <v>329</v>
+      <c r="A5" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>339</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B6" t="s">
-        <v>331</v>
+      <c r="A6" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" t="s">
-        <v>333</v>
+      <c r="A7" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>343</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B8" t="s">
-        <v>335</v>
+      <c r="A8" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>345</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9" t="s">
-        <v>337</v>
+      <c r="A9" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>347</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B10" t="s">
-        <v>339</v>
+      <c r="A10" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>349</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" t="s">
-        <v>341</v>
+      <c r="A11" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>351</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" t="s">
-        <v>343</v>
+      <c r="A12" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>353</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B13" t="s">
-        <v>345</v>
+      <c r="A13" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2908,59 +2932,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" t="s">
-        <v>351</v>
+      <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
+      <c r="A2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" t="s">
-        <v>242</v>
+      <c r="A3" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" t="s">
-        <v>353</v>
+      <c r="A4" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>361</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" t="s">
-        <v>355</v>
+      <c r="A5" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>363</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
+      <c r="A6" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>126</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B7" t="s">
-        <v>357</v>
+      <c r="A7" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2977,115 +3001,115 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
+      <c r="A1" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B3" t="s">
-        <v>360</v>
+      <c r="A3" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>368</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" t="s">
-        <v>362</v>
+      <c r="A4" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" t="s">
-        <v>195</v>
+      <c r="A5" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
+      <c r="A6" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" t="s">
-        <v>364</v>
+      <c r="A7" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>372</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" t="s">
-        <v>366</v>
+      <c r="A8" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>374</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B9" t="s">
-        <v>368</v>
+      <c r="A9" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>376</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" t="s">
-        <v>370</v>
+      <c r="A10" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>378</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" t="s">
-        <v>372</v>
+      <c r="A11" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>380</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B12" t="s">
-        <v>374</v>
+      <c r="A12" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>382</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B13" t="s">
-        <v>376</v>
+      <c r="A13" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>384</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" t="s">
-        <v>378</v>
+      <c r="A14" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3102,19 +3126,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" t="s">
-        <v>300</v>
+      <c r="A1" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>310</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" t="s">
-        <v>296</v>
+      <c r="A2" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3130,38 +3154,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.59375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1" t="s">
-        <v>387</v>
+      <c r="A1" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>395</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D2" t="s">
-        <v>388</v>
+      <c r="B2" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3178,90 +3202,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -3279,12 +3303,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -3295,146 +3319,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3444,346 +3484,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>159</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>161</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>163</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" t="s">
-        <v>165</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" t="s">
-        <v>167</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>169</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" t="s">
-        <v>171</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" t="s">
-        <v>173</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" t="s">
-        <v>175</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" t="s">
-        <v>177</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" t="s">
-        <v>179</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" t="s">
-        <v>181</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>185</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" t="s">
-        <v>189</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s">
-        <v>191</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" t="s">
-        <v>193</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" t="s">
-        <v>195</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" t="s">
-        <v>197</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" t="s">
-        <v>199</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" t="s">
-        <v>201</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>203</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" t="s">
-        <v>205</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" t="s">
-        <v>207</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>208</v>
-      </c>
-      <c r="B39" t="s">
-        <v>209</v>
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" t="s">
-        <v>211</v>
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" t="s">
-        <v>213</v>
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B42" t="s">
-        <v>215</v>
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3800,43 +3864,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" t="s">
-        <v>219</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>221</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>225</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>227</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3853,27 +3917,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3890,33 +3954,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>233</v>
+      <c r="A1" t="s" s="0">
+        <v>243</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>234</v>
+      <c r="A2" t="s" s="0">
+        <v>244</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>235</v>
+      <c r="A3" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>236</v>
+      <c r="A4" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>237</v>
+      <c r="A5" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>238</v>
+      <c r="A6" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="413">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1311,6 +1311,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
   </si>
   <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
   </si>
   <si>
@@ -1329,6 +1335,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN-120267</t>
   </si>
   <si>
@@ -1347,6 +1359,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000321</t>
+  </si>
+  <si>
     <t>sample_indexing_kit</t>
   </si>
   <si>
@@ -1410,6 +1428,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (300 Cycles); PN 20028317</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000318</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (100 Cycles); PN 20046811</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
   </si>
   <si>
@@ -1440,6 +1470,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
   </si>
   <si>
@@ -1554,6 +1590,18 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000324</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000325</t>
+  </si>
+  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1572,7 +1620,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:39:37-08:00</t>
+    <t>2024-02-08T09:16:25-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1860,40 +1908,40 @@
         <v>304</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
@@ -1901,7 +1949,7 @@
         <v>50</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2052,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$7</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$4</formula1>
@@ -2017,7 +2065,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$13</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -2026,7 +2074,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$2</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2671,7 +2719,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2731,6 +2779,30 @@
       </c>
       <c r="B7" t="s" s="0">
         <v>318</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2748,10 +2820,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
@@ -2764,18 +2836,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2880,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2816,106 +2888,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2957,18 +3053,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6">
@@ -2981,10 +3077,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -3018,18 +3114,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
@@ -3050,66 +3146,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3215,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3127,10 +3223,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
@@ -3139,6 +3235,22 @@
       </c>
       <c r="B2" t="s" s="0">
         <v>306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3162,16 +3274,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
@@ -3179,13 +3291,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="417">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -777,6 +777,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -906,6 +912,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -1620,7 +1632,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-08T09:16:25-08:00</t>
+    <t>2024-02-09T10:29:07-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1821,127 +1833,127 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2">
@@ -1949,7 +1961,7 @@
         <v>50</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -1964,10 +1976,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$20</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$46</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2093,26 +2105,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2130,32 +2142,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2173,17 +2185,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2201,26 +2213,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2238,27 +2250,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2276,42 +2288,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2329,10 +2341,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2350,10 +2362,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2371,10 +2383,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2392,18 +2404,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2698,18 +2710,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2727,82 +2739,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2820,34 +2832,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2888,130 +2900,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3045,26 +3057,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
@@ -3077,10 +3089,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3098,114 +3110,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3223,34 +3235,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3274,16 +3286,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
@@ -3291,13 +3303,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +3443,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3589,6 +3601,14 @@
         <v>134</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3596,7 +3616,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3604,362 +3624,370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3977,42 +4005,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4030,26 +4058,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4067,32 +4095,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="417">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1245,10 +1245,16 @@
     <t>amount_of_input_analyte_unit</t>
   </si>
   <si>
-    <t>Amount of input analyte unit</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_1001221</t>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
   </si>
   <si>
     <t>library_adapter_sequence</t>
@@ -1263,12 +1269,6 @@
     <t>library_input_amount_unit</t>
   </si>
   <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
-  </si>
-  <si>
     <t>library_output_amount_value</t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-09T10:29:07-08:00</t>
+    <t>2024-02-13T14:42:04-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1884,16 +1884,16 @@
         <v>284</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AC1" t="s" s="1">
         <v>293</v>
@@ -2025,7 +2025,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'amount_of_input_analyte_unit'!$A$1:$A$1</formula1>
+      <formula1>'amount_of_input_analyte_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-2147483648</formula1>
@@ -2333,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2345,6 +2345,14 @@
       </c>
       <c r="B1" t="s" s="0">
         <v>286</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2362,10 +2370,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2383,10 +2391,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="429">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -498,6 +498,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -603,6 +609,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -852,6 +864,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
@@ -1002,6 +1020,12 @@
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
+  </si>
+  <si>
     <t>MIBIscope</t>
   </si>
   <si>
@@ -1269,6 +1293,12 @@
     <t>library_input_amount_unit</t>
   </si>
   <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
     <t>library_output_amount_value</t>
   </si>
   <si>
@@ -1581,6 +1611,12 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
+    <t>ST5020 Multistainer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025021</t>
+  </si>
+  <si>
     <t>Chromium iX</t>
   </si>
   <si>
@@ -1632,7 +1668,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-13T14:42:04-08:00</t>
+    <t>2024-03-04T13:56:38-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1824,153 +1860,153 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1979,7 +2015,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$20</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$46</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2036,14 +2072,14 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_input_amount_unit'!$A$1:$A$1</formula1>
+      <formula1>'library_input_amount_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AC2:AC1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AD2:AD1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_output_amount_unit'!$A$1:$A$1</formula1>
+      <formula1>'library_output_amount_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AE2:AE1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2083,7 +2119,7 @@
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_kit'!$A$1:$A$4</formula1>
@@ -2105,26 +2141,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2142,32 +2178,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2185,17 +2221,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2213,26 +2249,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2250,27 +2286,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2288,42 +2324,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2341,18 +2377,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2398,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2370,10 +2406,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2427,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2391,10 +2435,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2412,18 +2464,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2701,6 +2753,14 @@
       </c>
       <c r="B33" t="s" s="0">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2718,18 +2778,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2747,82 +2807,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2840,34 +2900,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2885,12 +2945,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2908,130 +2968,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3049,58 +3109,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3170,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3118,114 +3178,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>402</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3243,34 +3311,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3294,30 +3362,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3395,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3335,90 +3403,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3436,12 +3512,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3459,162 +3535,162 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3624,7 +3700,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3632,370 +3708,386 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4013,42 +4105,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4066,26 +4158,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4103,32 +4195,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="433">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -834,30 +834,144 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
-  </si>
-  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -876,36 +990,12 @@
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -918,12 +1008,6 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -966,12 +1050,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -984,42 +1062,12 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
-  </si>
-  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1032,18 +1080,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1056,36 +1092,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1173,6 +1179,9 @@
     <t>10,48,86</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1212,6 +1221,9 @@
     <t>umi_offset</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>umi_read</t>
   </si>
   <si>
@@ -1668,7 +1680,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-04T13:56:38-08:00</t>
+    <t>2024-03-05T18:56:59-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1872,124 +1884,124 @@
         <v>141</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
@@ -1997,7 +2009,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2027,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$20</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2032,7 +2044,7 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$6</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -2041,7 +2053,7 @@
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$3</formula1>
+      <formula1>'umi_offset'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -2141,26 +2153,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2178,32 +2190,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2221,17 +2233,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>270</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2249,26 +2266,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2286,27 +2303,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2324,42 +2341,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2377,18 +2394,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2406,18 +2423,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2435,18 +2452,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2464,18 +2481,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2778,18 +2795,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2807,82 +2824,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2900,34 +2917,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2968,130 +2985,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3125,26 +3142,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6">
@@ -3157,10 +3174,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3178,122 +3195,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3311,34 +3328,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3362,16 +3379,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">
@@ -3379,13 +3396,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3717,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4088,6 +4105,14 @@
       </c>
       <c r="B48" t="s" s="0">
         <v>237</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4105,42 +4130,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4158,26 +4183,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4212,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4195,32 +4220,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="493">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -723,6 +723,12 @@
     <t>https://identifiers.org/RRID:SCR_008452</t>
   </si>
   <si>
+    <t>Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025096</t>
+  </si>
+  <si>
     <t>Zeiss Microscopy</t>
   </si>
   <si>
@@ -882,6 +888,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>Discovery Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025097</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -1359,6 +1371,90 @@
     <t>library_preparation_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 8 rxns; PN 1000370</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000336</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000344</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000340</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Evercode WT v2 Kit, 48 rxns; PN ECW02030</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000341</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000339</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 16 rxns; PN 1000268</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000335</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000355</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
   </si>
   <si>
@@ -1371,40 +1467,22 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN-120267</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000343</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3’ GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
   </si>
   <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
@@ -1413,6 +1491,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
+    <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
   </si>
   <si>
@@ -1422,12 +1506,78 @@
     <t>sample_indexing_kit</t>
   </si>
   <si>
+    <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000349</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA Single Indexes Set A (12 Indexes, 48 Samples); PN 20020492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000347</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA Single Indexes Set B (12 Indexes, 48 Samples); PN 20020493</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000356</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-CD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000357</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-EF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000358</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-GH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000345</t>
+  </si>
+  <si>
+    <t>Integrated DNA Technologies: Custom DNA Oligos</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000351</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000346</t>
+  </si>
+  <si>
     <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
   </si>
   <si>
+    <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000350</t>
+  </si>
+  <si>
     <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
   </si>
   <si>
@@ -1464,6 +1614,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
   </si>
   <si>
@@ -1482,6 +1638,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (300 Cycles); PN 20046813</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000353</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagents Kit (100 Cycles); PN 20040559</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000361</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (300 Cycles); PN 20028317</t>
   </si>
   <si>
@@ -1494,12 +1662,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
+  </si>
+  <si>
     <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
   </si>
   <si>
@@ -1680,7 +1860,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-05T18:56:59-08:00</t>
+    <t>2024-03-18T09:17:36-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1881,127 +2061,127 @@
         <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>424</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2">
@@ -2009,7 +2189,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>425</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -2024,10 +2204,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$20</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2112,10 +2292,10 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$10</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$4</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2125,7 +2305,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$16</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -2153,26 +2333,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2190,32 +2370,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2233,22 +2413,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2266,26 +2446,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2303,27 +2483,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2341,42 +2521,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2394,18 +2574,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2423,18 +2603,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2452,18 +2632,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2481,18 +2661,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2795,18 +2975,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +2996,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2824,82 +3004,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +3185,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2917,34 +3193,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>349</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +3341,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2985,130 +3349,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>357</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>359</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>363</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>365</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>369</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>371</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>373</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>375</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>377</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>379</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>381</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>383</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>385</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3134,50 +3538,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>391</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>393</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>395</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3195,122 +3599,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>398</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>400</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>402</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>404</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>406</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>408</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>410</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>412</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>414</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>416</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>418</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -3328,34 +3732,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>421</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>423</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3379,16 +3783,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>431</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2">
@@ -3396,13 +3800,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>432</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3948,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3710,6 +4114,14 @@
         <v>140</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3717,7 +4129,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3725,394 +4137,402 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4130,42 +4550,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4183,26 +4603,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4220,37 +4640,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="503">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -723,127 +723,1054 @@
     <t>https://identifiers.org/RRID:SCR_008452</t>
   </si>
   <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>Standard BioTools (Fluidigm)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023606</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
+    <t>Sciex</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023651</t>
+  </si>
+  <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
+    <t>Keyence</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023604</t>
+  </si>
+  <si>
+    <t>Leica Biosystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023603</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Hamamatsu</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017105</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
+    <t>acquisition_instrument_model</t>
+  </si>
+  <si>
+    <t>SCN400</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023611</t>
+  </si>
+  <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
+    <t>BZ-X710</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017202</t>
+  </si>
+  <si>
+    <t>NanoZoomer S210</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023760</t>
+  </si>
+  <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Orbitrap Fusion Lumos Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020562</t>
+  </si>
+  <si>
+    <t>Resolve Biosciences Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024449</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>MALDI timsTOF Flex Prototype</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
+    <t>HiSeq 2500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016383</t>
+  </si>
+  <si>
+    <t>Orbitrap Eclipse Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023618</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>NextSeq 2000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023614</t>
+  </si>
+  <si>
+    <t>NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016387</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>HiSeq 4000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016386</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
+  </si>
+  <si>
+    <t>MIBIscope</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023613</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>NanoZoomer S60</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023762</t>
+  </si>
+  <si>
+    <t>CosMx Spatial Molecular Imager</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023909</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
+    <t>Axio Scan.Z1</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020927</t>
+  </si>
+  <si>
+    <t>Q Exactive HF</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020558</t>
+  </si>
+  <si>
+    <t>Xenium Analyzer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023910</t>
+  </si>
+  <si>
+    <t>source_storage_duration_value</t>
+  </si>
+  <si>
+    <t>source_storage_duration_unit</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000032</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000035</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000036</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000033</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000031</t>
+  </si>
+  <si>
+    <t>time_since_acquisition_instrument_calibration_value</t>
+  </si>
+  <si>
+    <t>time_since_acquisition_instrument_calibration_unit</t>
+  </si>
+  <si>
+    <t>contributors_path</t>
+  </si>
+  <si>
+    <t>data_path</t>
+  </si>
+  <si>
+    <t>barcode_offset</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0,38,76</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10,48,86</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>barcode_read</t>
+  </si>
+  <si>
+    <t>Read 1 (R1)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
+    <t>Read 2 (R2)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172302</t>
+  </si>
+  <si>
+    <t>barcode_size</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>umi_offset</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>umi_read</t>
+  </si>
+  <si>
+    <t>umi_size</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>assay_input_entity</t>
+  </si>
+  <si>
+    <t>single nucleus</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000269</t>
+  </si>
+  <si>
+    <t>single cell</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
+  </si>
+  <si>
+    <t>tissue (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
+  </si>
+  <si>
+    <t>area of interest</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000271</t>
+  </si>
+  <si>
+    <t>number_of_input_cells_or_nuclei</t>
+  </si>
+  <si>
+    <t>amount_of_input_analyte_value</t>
+  </si>
+  <si>
+    <t>amount_of_input_analyte_unit</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
+    <t>library_adapter_sequence</t>
+  </si>
+  <si>
+    <t>library_average_fragment_size</t>
+  </si>
+  <si>
+    <t>library_input_amount_value</t>
+  </si>
+  <si>
+    <t>library_input_amount_unit</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>library_output_amount_value</t>
+  </si>
+  <si>
+    <t>library_output_amount_unit</t>
+  </si>
+  <si>
+    <t>library_concentration_value</t>
+  </si>
+  <si>
+    <t>library_concentration_unit</t>
+  </si>
+  <si>
+    <t>ng/ul</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0010050</t>
+  </si>
+  <si>
+    <t>nM</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000065</t>
+  </si>
+  <si>
+    <t>library_layout</t>
+  </si>
+  <si>
+    <t>single-end</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002481</t>
+  </si>
+  <si>
+    <t>paired-end</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000722</t>
+  </si>
+  <si>
+    <t>number_of_iterations_of_cdna_amplification</t>
+  </si>
+  <si>
+    <t>number_of_pcr_cycles_for_indexing</t>
+  </si>
+  <si>
+    <t>library_preparation_kit</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 8 rxns; PN 1000370</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000336</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000344</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 4 rxns; PN 1000298</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000366</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000340</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Evercode WT v2 Kit, 48 rxns; PN ECW02030</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000341</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000339</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 16 rxns; PN 1000268</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000335</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000355</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000343</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000365</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3’ GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000321</t>
+  </si>
+  <si>
+    <t>sample_indexing_kit</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000349</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA Single Indexes Set A (12 Indexes, 48 Samples); PN 20020492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000347</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA Single Indexes Set B (12 Indexes, 48 Samples); PN 20020493</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000356</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-CD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000357</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-EF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000358</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-GH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000345</t>
+  </si>
+  <si>
+    <t>Integrated DNA Technologies: Custom DNA Oligos</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000351</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000346</t>
+  </si>
+  <si>
+    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
+  </si>
+  <si>
+    <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000350</t>
+  </si>
+  <si>
+    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
+  </si>
+  <si>
+    <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
+  </si>
+  <si>
+    <t>sample_indexing_set</t>
+  </si>
+  <si>
+    <t>is_technical_replicate</t>
+  </si>
+  <si>
+    <t>expected_entity_capture_count</t>
+  </si>
+  <si>
+    <t>sequencing_reagent_kit</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (300 Cycles); PN 20046813</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000353</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagents Kit (100 Cycles); PN 20040559</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000361</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (300 Cycles); PN 20028317</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000318</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (100 Cycles); PN 20046811</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
+  </si>
+  <si>
+    <t>sequencing_read_format</t>
+  </si>
+  <si>
+    <t>sequencing_batch_id</t>
+  </si>
+  <si>
+    <t>capture_batch_id</t>
+  </si>
+  <si>
+    <t>preparation_instrument_vendor</t>
+  </si>
+  <si>
     <t>Roche Diagnostics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_025096</t>
   </si>
   <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
-  </si>
-  <si>
-    <t>Standard BioTools (Fluidigm)</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023606</t>
-  </si>
-  <si>
-    <t>Sciex</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023651</t>
-  </si>
-  <si>
-    <t>Bruker</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017365</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
-    <t>Evident Scientific (Olympus)</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024782</t>
-  </si>
-  <si>
-    <t>Keyence</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023604</t>
-  </si>
-  <si>
-    <t>Leica Biosystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023603</t>
-  </si>
-  <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
-    <t>Hamamatsu</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017105</t>
-  </si>
-  <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
-    <t>Motic</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024856</t>
-  </si>
-  <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
-    <t>acquisition_instrument_model</t>
-  </si>
-  <si>
-    <t>SCN400</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023611</t>
-  </si>
-  <si>
-    <t>STELLARIS 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024663</t>
-  </si>
-  <si>
-    <t>BZ-X710</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017202</t>
-  </si>
-  <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>HTX Technologies</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023734</t>
+  </si>
+  <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
+    <t>SunChrom</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023908</t>
+  </si>
+  <si>
+    <t>preparation_instrument_model</t>
+  </si>
+  <si>
+    <t>Sublimator</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023729</t>
   </si>
   <si>
     <t>EVOS M7000</t>
@@ -852,40 +1779,40 @@
     <t>https://identifiers.org/RRID:SCR_025070</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+    <t>Chromium Controller</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019326</t>
+  </si>
+  <si>
+    <t>Chromium X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024537</t>
+  </si>
+  <si>
+    <t>AutoStainer XL</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023957</t>
+  </si>
+  <si>
+    <t>Visium CytAssist</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024570</t>
+  </si>
+  <si>
+    <t>SunCollect Sprayer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023907</t>
+  </si>
+  <si>
+    <t>M3+ Sprayer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
     <t>Discovery Ultra</t>
@@ -894,915 +1821,6 @@
     <t>https://identifiers.org/RRID:SCR_025097</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
-  </si>
-  <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
-    <t>NanoZoomer S210</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023760</t>
-  </si>
-  <si>
-    <t>Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
-    <t>PhenoImager Fusion</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023274</t>
-  </si>
-  <si>
-    <t>DM6 B</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024857</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 2.0</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023773</t>
-  </si>
-  <si>
-    <t>Orbitrap Fusion Lumos Tribrid</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020562</t>
-  </si>
-  <si>
-    <t>Resolve Biosciences Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024449</t>
-  </si>
-  <si>
-    <t>MALDI timsTOF Flex Prototype</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
-  </si>
-  <si>
-    <t>TissueScope LE Slide Scanner</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024995</t>
-  </si>
-  <si>
-    <t>VS200 Slide Scanner</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024783</t>
-  </si>
-  <si>
-    <t>Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
-    <t>Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
-    <t>HiSeq 2500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016383</t>
-  </si>
-  <si>
-    <t>Orbitrap Eclipse Tribrid</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023618</t>
-  </si>
-  <si>
-    <t>NextSeq 2000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023614</t>
-  </si>
-  <si>
-    <t>NovaSeq 6000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016387</t>
-  </si>
-  <si>
-    <t>HiSeq 4000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016386</t>
-  </si>
-  <si>
-    <t>Aperio AT2</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021256</t>
-  </si>
-  <si>
-    <t>MIBIscope</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023613</t>
-  </si>
-  <si>
-    <t>NanoZoomer S60</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023762</t>
-  </si>
-  <si>
-    <t>CosMx Spatial Molecular Imager</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023909</t>
-  </si>
-  <si>
-    <t>Axio Scan.Z1</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020927</t>
-  </si>
-  <si>
-    <t>Q Exactive HF</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020558</t>
-  </si>
-  <si>
-    <t>Xenium Analyzer</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023910</t>
-  </si>
-  <si>
-    <t>source_storage_duration_value</t>
-  </si>
-  <si>
-    <t>source_storage_duration_unit</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000032</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000035</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000036</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000033</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000031</t>
-  </si>
-  <si>
-    <t>time_since_acquisition_instrument_calibration_value</t>
-  </si>
-  <si>
-    <t>time_since_acquisition_instrument_calibration_unit</t>
-  </si>
-  <si>
-    <t>contributors_path</t>
-  </si>
-  <si>
-    <t>data_path</t>
-  </si>
-  <si>
-    <t>barcode_offset</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,38,76</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>1,27</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10,48,86</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>barcode_read</t>
-  </si>
-  <si>
-    <t>Read 1 (R1)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
-    <t>Read 2 (R2)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172302</t>
-  </si>
-  <si>
-    <t>barcode_size</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>umi_offset</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>umi_read</t>
-  </si>
-  <si>
-    <t>umi_size</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>assay_input_entity</t>
-  </si>
-  <si>
-    <t>single nucleus</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000269</t>
-  </si>
-  <si>
-    <t>single cell</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
-  </si>
-  <si>
-    <t>tissue (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
-  </si>
-  <si>
-    <t>area of interest</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000271</t>
-  </si>
-  <si>
-    <t>number_of_input_cells_or_nuclei</t>
-  </si>
-  <si>
-    <t>amount_of_input_analyte_value</t>
-  </si>
-  <si>
-    <t>amount_of_input_analyte_unit</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
-  </si>
-  <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
-    <t>library_adapter_sequence</t>
-  </si>
-  <si>
-    <t>library_average_fragment_size</t>
-  </si>
-  <si>
-    <t>library_input_amount_value</t>
-  </si>
-  <si>
-    <t>library_input_amount_unit</t>
-  </si>
-  <si>
-    <t>ul</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
-  </si>
-  <si>
-    <t>library_output_amount_value</t>
-  </si>
-  <si>
-    <t>library_output_amount_unit</t>
-  </si>
-  <si>
-    <t>library_concentration_value</t>
-  </si>
-  <si>
-    <t>library_concentration_unit</t>
-  </si>
-  <si>
-    <t>ng/ul</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0010050</t>
-  </si>
-  <si>
-    <t>nM</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000065</t>
-  </si>
-  <si>
-    <t>library_layout</t>
-  </si>
-  <si>
-    <t>single-end</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0002481</t>
-  </si>
-  <si>
-    <t>paired-end</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000722</t>
-  </si>
-  <si>
-    <t>number_of_iterations_of_cdna_amplification</t>
-  </si>
-  <si>
-    <t>number_of_pcr_cycles_for_indexing</t>
-  </si>
-  <si>
-    <t>library_preparation_kit</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 8 rxns; PN 1000370</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000336</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000344</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000340</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; Evercode WT v2 Kit, 48 rxns; PN ECW02030</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000341</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000339</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 16 rxns; PN 1000268</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000335</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000355</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000343</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3’ GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000321</t>
-  </si>
-  <si>
-    <t>sample_indexing_kit</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000349</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq RNA Single Indexes Set A (12 Indexes, 48 Samples); PN 20020492</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000347</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq RNA Single Indexes Set B (12 Indexes, 48 Samples); PN 20020493</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000356</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-CD</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000357</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-EF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000358</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-GH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000345</t>
-  </si>
-  <si>
-    <t>Integrated DNA Technologies: Custom DNA Oligos</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000351</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000346</t>
-  </si>
-  <si>
-    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
-  </si>
-  <si>
-    <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000350</t>
-  </si>
-  <si>
-    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
-  </si>
-  <si>
-    <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
-  </si>
-  <si>
-    <t>sample_indexing_set</t>
-  </si>
-  <si>
-    <t>is_technical_replicate</t>
-  </si>
-  <si>
-    <t>expected_entity_capture_count</t>
-  </si>
-  <si>
-    <t>sequencing_reagent_kit</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (300 Cycles); PN 20046813</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000353</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 2000 P3 Reagents Kit (100 Cycles); PN 20040559</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000361</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (300 Cycles); PN 20028317</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000318</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (100 Cycles); PN 20046811</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
-  </si>
-  <si>
-    <t>sequencing_read_format</t>
-  </si>
-  <si>
-    <t>sequencing_batch_id</t>
-  </si>
-  <si>
-    <t>capture_batch_id</t>
-  </si>
-  <si>
-    <t>preparation_instrument_vendor</t>
-  </si>
-  <si>
-    <t>HTX Technologies</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023734</t>
-  </si>
-  <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
-    <t>SunChrom</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023908</t>
-  </si>
-  <si>
-    <t>preparation_instrument_model</t>
-  </si>
-  <si>
-    <t>Sublimator</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023729</t>
-  </si>
-  <si>
-    <t>Chromium Controller</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_019326</t>
-  </si>
-  <si>
-    <t>Chromium X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024537</t>
-  </si>
-  <si>
-    <t>AutoStainer XL</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023957</t>
-  </si>
-  <si>
-    <t>Visium CytAssist</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024570</t>
-  </si>
-  <si>
-    <t>SunCollect Sprayer</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023907</t>
-  </si>
-  <si>
-    <t>M3+ Sprayer</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023731</t>
-  </si>
-  <si>
     <t>ST5020 Multistainer</t>
   </si>
   <si>
@@ -1830,18 +1848,30 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000324</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+    <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000325</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000368</t>
+  </si>
+  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1860,7 +1890,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-18T09:17:36-07:00</t>
+    <t>2024-03-20T10:47:13-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2064,88 +2094,88 @@
         <v>143</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>256</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>258</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>259</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>260</v>
-      </c>
       <c r="P1" t="s" s="1">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="T1" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="U1" t="s" s="1">
         <v>283</v>
       </c>
-      <c r="U1" t="s" s="1">
-        <v>287</v>
-      </c>
       <c r="V1" t="s" s="1">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AA1" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="AC1" t="s" s="1">
         <v>307</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>308</v>
       </c>
-      <c r="AC1" t="s" s="1">
-        <v>311</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>312</v>
-      </c>
       <c r="AE1" t="s" s="1">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AK1" t="s" s="1">
         <v>371</v>
@@ -2175,13 +2205,13 @@
         <v>449</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2">
@@ -2189,7 +2219,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2237,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$50</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2292,7 +2322,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$22</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
@@ -2308,13 +2338,13 @@
       <formula1>'sequencing_reagent_kit'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$15</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$4</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2333,26 +2363,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2370,32 +2400,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2413,22 +2443,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2446,26 +2476,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2483,27 +2513,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2521,42 +2551,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2574,18 +2604,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2603,18 +2633,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2632,18 +2662,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2661,18 +2691,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2975,18 +3005,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +3026,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3004,177 +3034,193 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>369</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B24" t="s" s="0">
         <v>370</v>
       </c>
     </row>
@@ -3201,10 +3247,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
@@ -3522,7 +3568,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3546,34 +3592,34 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>450</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>451</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>131</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7">
@@ -3582,6 +3628,22 @@
       </c>
       <c r="B7" t="s" s="0">
         <v>455</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -3591,7 +3653,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3599,122 +3661,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>182</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>183</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>461</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>462</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3724,7 +3802,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3732,34 +3810,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>480</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>481</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3783,16 +3877,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2">
@@ -3800,13 +3894,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4223,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4517,22 +4611,6 @@
       </c>
       <c r="B48" t="s" s="0">
         <v>239</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>240</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>242</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4550,42 +4628,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4603,26 +4681,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4640,37 +4718,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -1449,6 +1449,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000355</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
   </si>
   <si>
@@ -1479,12 +1485,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3’ GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
-  </si>
-  <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
   </si>
   <si>
@@ -1890,7 +1890,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-20T10:47:13-07:00</t>
+    <t>2024-03-21T13:34:28-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4">

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="505">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1686,6 +1686,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 500/550 Mid Output Kit 150 Cycles v2.5; PN 20024904</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000369</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
   </si>
   <si>
@@ -1890,7 +1896,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-21T13:34:28-07:00</t>
+    <t>2024-03-22T07:33:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2193,25 +2199,25 @@
         <v>403</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2">
@@ -2219,7 +2225,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -2335,7 +2341,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$21</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -3387,7 +3393,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3559,6 +3565,14 @@
       </c>
       <c r="B21" t="s" s="0">
         <v>445</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3608,26 +3622,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8">
@@ -3640,10 +3654,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3677,26 +3691,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6">
@@ -3717,82 +3731,82 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -3818,10 +3832,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3">
@@ -3834,26 +3848,26 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3877,16 +3891,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2">
@@ -3894,13 +3908,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="510">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -840,30 +840,144 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
-  </si>
-  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -882,36 +996,12 @@
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -924,12 +1014,6 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -972,12 +1056,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -990,42 +1068,12 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
-  </si>
-  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1038,18 +1086,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1062,36 +1098,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1179,6 +1185,9 @@
     <t>10,48,86</t>
   </si>
   <si>
+    <t>10,48,78</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -1365,78 +1374,120 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000336</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 4 rxns; PN 1000298</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000366</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Evercode WT v2 Kit, 48 rxns; PN ECW02030</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000341</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000339</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 16 rxns; PN 1000268</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000335</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000343</t>
+  </si>
+  <si>
+    <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000374</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000365</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
+  </si>
+  <si>
     <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000344</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 4 rxns; PN 1000298</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000366</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000340</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; Evercode WT v2 Kit, 48 rxns; PN ECW02030</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000341</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000339</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 16 rxns; PN 1000268</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
-  </si>
-  <si>
     <t>Custom</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000335</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
   </si>
   <si>
@@ -1449,54 +1500,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000355</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
   </si>
   <si>
-    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000343</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000365</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
-  </si>
-  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
   </si>
   <si>
@@ -1779,12 +1794,6 @@
     <t>https://identifiers.org/RRID:SCR_023729</t>
   </si>
   <si>
-    <t>EVOS M7000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025070</t>
-  </si>
-  <si>
     <t>Chromium Controller</t>
   </si>
   <si>
@@ -1854,6 +1863,12 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
   </si>
   <si>
@@ -1896,7 +1911,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-22T07:33:22-07:00</t>
+    <t>2024-03-25T11:33:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2100,124 +2115,124 @@
         <v>143</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2">
@@ -2225,7 +2240,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2258,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2260,7 +2275,7 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$7</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -2328,7 +2343,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$24</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$25</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
@@ -2350,7 +2365,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$6</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2369,26 +2384,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2406,32 +2421,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2449,22 +2464,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2482,26 +2497,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2519,27 +2534,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2557,42 +2572,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2610,18 +2625,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2639,18 +2654,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2668,18 +2683,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2697,18 +2712,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3011,18 +3026,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3047,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3040,194 +3055,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>370</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3245,122 +3268,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3401,178 +3424,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -3606,10 +3629,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
@@ -3622,26 +3645,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
@@ -3654,10 +3677,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -3675,138 +3698,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>463</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>464</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -3816,7 +3839,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3824,50 +3847,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>489</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>495</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3891,16 +3922,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
@@ -3908,13 +3939,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +4268,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4625,6 +4656,14 @@
       </c>
       <c r="B48" t="s" s="0">
         <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4642,42 +4681,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4695,26 +4734,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4724,7 +4763,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4732,37 +4771,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="512">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1848,6 +1848,12 @@
     <t>https://identifiers.org/RRID:SCR_024536</t>
   </si>
   <si>
+    <t>Chromium Connect</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025146</t>
+  </si>
+  <si>
     <t>M5 Sprayer</t>
   </si>
   <si>
@@ -1911,7 +1917,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-25T11:33:15-07:00</t>
+    <t>2024-03-26T13:37:42-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2229,10 +2235,10 @@
         <v>465</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2">
@@ -2240,7 +2246,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2368,7 @@
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$17</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_kit'!$A$1:$A$7</formula1>
@@ -3690,7 +3696,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3830,6 +3836,14 @@
       </c>
       <c r="B17" t="s" s="0">
         <v>489</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3847,10 +3861,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2">
@@ -3871,34 +3885,34 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3922,16 +3936,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2">
@@ -3939,13 +3953,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="518">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -753,6 +753,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -972,6 +978,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -1002,6 +1014,12 @@
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -1917,7 +1935,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-26T13:37:42-07:00</t>
+    <t>2024-04-01T14:49:27-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2118,127 +2136,127 @@
         <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2">
@@ -2246,7 +2264,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -2261,10 +2279,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2390,26 +2408,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2427,32 +2445,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2470,22 +2488,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2503,26 +2521,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2540,27 +2558,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2578,42 +2596,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2631,18 +2649,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2660,18 +2678,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2689,18 +2707,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2718,18 +2736,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3032,18 +3050,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3061,202 +3079,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3274,122 +3292,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3430,178 +3448,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -3627,18 +3645,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
@@ -3651,42 +3669,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -3704,146 +3722,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -3861,58 +3879,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -3936,16 +3954,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
@@ -3953,13 +3971,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -4101,7 +4119,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4275,6 +4293,14 @@
         <v>142</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4282,7 +4308,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4290,394 +4316,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4695,42 +4737,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4748,26 +4790,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4785,42 +4827,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="526">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1458,6 +1458,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000374</t>
   </si>
   <si>
+    <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000377</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
   </si>
   <si>
@@ -1500,6 +1506,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000375</t>
+  </si>
+  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -1887,6 +1899,12 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000379</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
   </si>
   <si>
@@ -1899,6 +1917,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000378</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
   </si>
   <si>
@@ -1935,7 +1959,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:49:27-07:00</t>
+    <t>2024-04-05T13:06:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2223,40 +2247,40 @@
         <v>331</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2">
@@ -2264,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2391,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$25</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
@@ -2389,7 +2413,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$7</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3071,7 +3095,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3275,6 +3299,22 @@
       </c>
       <c r="B25" t="s" s="0">
         <v>381</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3292,10 +3332,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
@@ -3308,106 +3348,106 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3448,178 +3488,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3669,26 +3709,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8">
@@ -3701,10 +3741,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -3738,10 +3778,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4">
@@ -3754,10 +3794,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6">
@@ -3778,90 +3818,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +3911,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3879,58 +3919,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>376</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>377</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>501</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>502</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -3954,16 +4010,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
@@ -3971,13 +4027,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="530">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1569,6 +1569,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium i7 Sample Index Plate (96 rxn); PN 220103</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000380</t>
+  </si>
+  <si>
     <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
   </si>
   <si>
@@ -1755,6 +1761,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 75 Cycles v2.5; PN 20024906</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000381</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
   </si>
   <si>
@@ -1959,7 +1971,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-05T13:06:18-07:00</t>
+    <t>2024-04-20T17:33:01-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2250,37 +2262,37 @@
         <v>386</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2">
@@ -2288,7 +2300,7 @@
         <v>52</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2406,7 @@
       <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2404,7 +2416,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$22</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -3324,7 +3336,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3448,6 +3460,14 @@
       </c>
       <c r="B15" t="s" s="0">
         <v>414</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3480,7 +3500,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3488,178 +3508,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3709,26 +3737,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8">
@@ -3741,10 +3769,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -3778,10 +3806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4">
@@ -3794,10 +3822,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6">
@@ -3818,90 +3846,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -3919,18 +3947,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3">
@@ -3951,42 +3979,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -4010,16 +4038,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
@@ -4027,13 +4055,13 @@
         <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -1971,7 +1971,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-20T17:33:01-07:00</t>
+    <t>2024-04-23T09:34:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="534">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -450,6 +450,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -546,6 +552,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -1971,7 +1983,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-23T09:34:03-07:00</t>
+    <t>2024-06-05T17:27:10-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2163,150 +2175,150 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$12</formula1>
@@ -2406,7 +2418,7 @@
       <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$16</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2416,7 +2428,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$23</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2425,7 +2437,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2444,26 +2456,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2481,32 +2493,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2524,22 +2536,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2557,26 +2569,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2594,27 +2606,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2632,42 +2644,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2685,18 +2697,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2714,18 +2726,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2743,18 +2755,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2772,18 +2784,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2793,7 +2805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3069,6 +3081,22 @@
       </c>
       <c r="B34" t="s" s="0">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3086,18 +3114,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3115,218 +3143,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3336,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3344,130 +3372,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3485,12 +3521,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3536,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3508,186 +3544,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>440</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -3705,74 +3749,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3790,146 +3834,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3947,74 +3991,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>517</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>518</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4038,30 +4090,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4079,98 +4131,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4188,12 +4240,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4211,178 +4263,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4400,410 +4452,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4821,42 +4873,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4874,26 +4926,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4911,42 +4963,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="540">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -639,22 +639,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -681,27 +711,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -750,7 +768,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -858,6 +876,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1200,27 +1224,24 @@
     <t>0</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
     <t>0,38,76</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>1,27</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>10,48,78</t>
   </si>
   <si>
     <t>10,48,86</t>
   </si>
   <si>
-    <t>10,48,78</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1230,9 +1251,6 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
   </si>
   <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
     <t>Read 2 (R2)</t>
   </si>
   <si>
@@ -1242,21 +1260,21 @@
     <t>barcode_size</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
     <t>8,6</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>umi_offset</t>
   </si>
   <si>
@@ -1269,42 +1287,42 @@
     <t>umi_size</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>assay_input_entity</t>
   </si>
   <si>
+    <t>single cell</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
+  </si>
+  <si>
+    <t>tissue (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
+  </si>
+  <si>
     <t>single nucleus</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000269</t>
   </si>
   <si>
-    <t>single cell</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
-  </si>
-  <si>
-    <t>tissue (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
-  </si>
-  <si>
     <t>area of interest</t>
   </si>
   <si>
@@ -1320,18 +1338,18 @@
     <t>amount_of_input_analyte_unit</t>
   </si>
   <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
     <t>ng</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000024</t>
   </si>
   <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
     <t>library_adapter_sequence</t>
   </si>
   <si>
@@ -1983,7 +2001,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-06-05T17:27:10-07:00</t>
+    <t>2024-08-03T11:43:07-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2178,133 +2196,133 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
@@ -2312,7 +2330,7 @@
         <v>56</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2339,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2330,7 +2348,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2456,26 +2474,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2493,32 +2511,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>288</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2536,22 +2554,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2569,26 +2587,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2606,27 +2624,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>295</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2644,42 +2662,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2697,18 +2715,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2726,10 +2744,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
@@ -2755,10 +2773,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
@@ -2784,18 +2802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3114,18 +3132,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3143,218 +3161,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3372,138 +3390,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -3521,12 +3539,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3544,194 +3562,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -3749,74 +3767,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>280</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -3834,146 +3852,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3991,82 +4009,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -4090,16 +4108,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
@@ -4107,13 +4125,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +4141,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4223,6 +4241,30 @@
       </c>
       <c r="B12" t="s" s="0">
         <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4240,12 +4282,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4263,178 +4305,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4444,7 +4486,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4452,410 +4494,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4873,42 +4923,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4926,26 +4976,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4963,42 +5013,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>276</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="542">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1683,22 +1683,52 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (300 Cycle); PN 20104706</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000392</t>
   </si>
   <si>
     <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
@@ -1743,24 +1773,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
-  </si>
-  <si>
     <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
   </si>
   <si>
@@ -1785,12 +1803,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
-  </si>
-  <si>
     <t>Illumina; NextSeq 500/550 Hi Output Kit 75 Cycles v2.5; PN 20024906</t>
   </si>
   <si>
@@ -1803,12 +1815,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
   </si>
   <si>
@@ -2001,7 +2007,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:43:07-07:00</t>
+    <t>2024-11-01T11:48:26-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2304,25 +2310,25 @@
         <v>430</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2">
@@ -2330,7 +2336,7 @@
         <v>56</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2452,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$24</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$25</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -3554,7 +3560,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3634,50 +3640,50 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>385</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>458</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16">
@@ -3750,6 +3756,14 @@
       </c>
       <c r="B24" t="s" s="0">
         <v>476</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -3799,26 +3813,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8">
@@ -3831,10 +3845,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -3868,10 +3882,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4">
@@ -3884,10 +3898,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6">
@@ -3908,90 +3922,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -4009,18 +4023,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3">
@@ -4041,26 +4055,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8">
@@ -4073,18 +4087,18 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -4108,16 +4122,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2">
@@ -4125,13 +4139,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="544">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -813,6 +813,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1506,6 +1512,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
   </si>
   <si>
@@ -1530,24 +1542,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000375</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000375</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
   </si>
   <si>
@@ -1851,12 +1863,6 @@
     <t>https://identifiers.org/RRID:SCR_023734</t>
   </si>
   <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -2007,7 +2013,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-11-01T11:48:26-07:00</t>
+    <t>2024-12-03T17:19:39-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2208,127 +2214,127 @@
         <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -2336,7 +2342,7 @@
         <v>56</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2357,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -2439,7 +2445,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$28</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2480,26 +2486,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2517,32 +2523,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2560,22 +2566,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2593,26 +2599,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2630,27 +2636,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2668,42 +2674,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2721,18 +2727,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2750,18 +2756,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2779,18 +2785,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2808,18 +2814,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3138,18 +3144,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3165,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3167,218 +3173,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3396,138 +3410,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3568,202 +3582,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3797,10 +3811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -3813,42 +3827,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>487</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>488</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -3866,146 +3880,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4023,82 +4037,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4122,16 +4136,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2">
@@ -4139,13 +4153,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4311,7 +4325,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4491,6 +4505,14 @@
       </c>
       <c r="B22" t="s" s="0">
         <v>154</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4508,418 +4530,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4937,42 +4959,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4990,26 +5012,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5027,42 +5049,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="554">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -528,6 +528,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -552,6 +558,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -1464,6 +1476,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000399</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
   </si>
   <si>
@@ -1476,6 +1494,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000398</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
   </si>
   <si>
@@ -1965,6 +1989,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000400</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
   </si>
   <si>
@@ -2013,7 +2043,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-12-03T17:19:39-08:00</t>
+    <t>2024-12-11T14:15:12-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2205,150 +2235,150 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$15</formula1>
@@ -2445,7 +2475,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$28</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2467,7 +2497,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$10</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2486,26 +2516,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2523,32 +2553,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2566,22 +2596,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2599,26 +2629,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2636,27 +2666,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2674,42 +2704,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2727,18 +2757,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2756,18 +2786,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2785,18 +2815,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2814,18 +2844,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2835,7 +2865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3127,6 +3157,22 @@
       </c>
       <c r="B36" t="s" s="0">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3144,18 +3190,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3211,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3173,226 +3219,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3410,138 +3472,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -3559,12 +3621,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3582,202 +3644,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -3795,74 +3857,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3880,146 +3942,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -4029,7 +4091,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4037,82 +4099,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>386</v>
+        <v>539</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>387</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>531</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>532</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>534</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4136,30 +4206,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4177,122 +4247,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4310,12 +4380,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4333,186 +4403,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4530,418 +4600,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4959,42 +5029,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5012,26 +5082,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5049,42 +5119,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="556">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -639,18 +639,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -663,13 +663,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -705,24 +711,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -2043,7 +2049,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-12-11T14:15:12-08:00</t>
+    <t>2025-01-08T12:44:01-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2238,133 +2244,133 @@
         <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2">
@@ -2372,7 +2378,7 @@
         <v>60</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2387,7 @@
       <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2516,26 +2522,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2553,32 +2559,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2596,22 +2602,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2629,26 +2635,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2666,27 +2672,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2704,42 +2710,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2757,18 +2763,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2786,18 +2792,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2815,18 +2821,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2844,18 +2850,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3190,18 +3196,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3219,242 +3225,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3472,138 +3478,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -3621,12 +3627,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3644,202 +3650,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -3857,74 +3863,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3942,146 +3948,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -4099,90 +4105,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4206,16 +4212,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2">
@@ -4223,13 +4229,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -4239,7 +4245,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4363,6 +4369,14 @@
       </c>
       <c r="B15" t="s" s="0">
         <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4380,12 +4394,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4403,186 +4417,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4600,418 +4614,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5029,42 +5043,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5082,26 +5096,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5119,42 +5133,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -68,11 +68,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -121,8 +121,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="598">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -474,10 +474,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -576,6 +576,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -630,6 +636,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -741,40 +759,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -783,12 +867,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -801,18 +879,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -837,48 +903,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -930,6 +966,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -948,12 +990,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -966,12 +1026,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -984,12 +1056,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -1014,6 +1104,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -1056,6 +1152,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -1134,6 +1236,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1176,6 +1284,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1488,6 +1602,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000399</t>
   </si>
   <si>
+    <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000432</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
   </si>
   <si>
@@ -1761,6 +1881,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
   </si>
   <si>
+    <t>Element Biosciences; AVITI 2x75 Sequencing Kit Cloudbreak FS High Output (184 Cycles); PN 860-00015</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000406</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
   </si>
   <si>
@@ -2049,7 +2175,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:44:01-08:00</t>
+    <t>2025-04-24T10:49:26-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2241,136 +2367,136 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>493</v>
+        <v>535</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>495</v>
+        <v>537</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>547</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2">
@@ -2378,13 +2504,13 @@
         <v>60</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>548</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2393,10 +2519,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2481,7 +2607,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$30</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$31</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2494,7 +2620,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$25</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2522,26 +2648,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2559,32 +2685,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2602,22 +2728,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2635,26 +2761,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2672,27 +2798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2710,42 +2836,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2763,18 +2889,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2792,18 +2918,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>333</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2821,18 +2947,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>333</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2850,18 +2976,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>339</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>341</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3179,6 +3305,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3196,18 +3346,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>344</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3225,242 +3375,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>367</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>369</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>371</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>375</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>377</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>381</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>383</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>385</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>387</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>389</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>391</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>393</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>395</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>397</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>399</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>401</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>403</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>405</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>407</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>409</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3478,138 +3636,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>412</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>414</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>416</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>418</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>420</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>422</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>424</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>426</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>397</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>428</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>430</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>432</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>434</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>436</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>438</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>440</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -3627,12 +3785,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3642,7 +3800,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3650,202 +3808,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>446</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>448</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>450</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>452</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>454</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>456</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>458</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>460</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>462</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>464</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>466</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>468</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>470</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>472</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>396</v>
+        <v>513</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>397</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>474</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>476</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>478</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>482</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>484</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>486</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>488</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>490</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>492</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -3863,74 +4029,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>498</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>500</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>501</v>
+        <v>543</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>502</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -3948,146 +4114,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>505</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>507</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>511</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>513</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>515</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>517</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>519</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>521</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>523</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>525</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>527</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>529</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -4105,90 +4271,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>532</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>534</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>405</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>393</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>536</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>540</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>542</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>397</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>544</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>546</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -4212,16 +4378,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>554</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2">
@@ -4229,13 +4395,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>555</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -4253,130 +4419,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4394,12 +4560,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +4575,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4417,186 +4583,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +4796,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4614,418 +4804,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5043,42 +5345,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5096,26 +5398,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5133,42 +5435,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="602">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1128,6 +1128,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1197,7 +1209,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -2175,7 +2187,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:49:26-07:00</t>
+    <t>2025-05-12T10:15:17-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2379,124 +2391,124 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2">
@@ -2504,7 +2516,7 @@
         <v>60</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2534,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2648,10 +2660,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -2664,10 +2676,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2685,27 +2697,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
@@ -2728,17 +2740,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
@@ -2761,10 +2773,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -2777,10 +2789,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2798,22 +2810,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
@@ -2836,42 +2848,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2889,18 +2901,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2918,18 +2930,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2947,18 +2959,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2976,18 +2988,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3346,18 +3358,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3375,250 +3387,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -3636,10 +3648,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
@@ -3652,122 +3664,122 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3808,210 +3820,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -4061,18 +4073,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7">
@@ -4093,10 +4105,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4114,10 +4126,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -4130,10 +4142,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4">
@@ -4146,10 +4158,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6">
@@ -4162,98 +4174,98 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -4271,90 +4283,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -4378,16 +4390,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2">
@@ -4395,13 +4407,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -4796,7 +4808,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5252,26 +5264,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -5328,6 +5340,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5345,42 +5373,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5398,26 +5426,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5435,37 +5463,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="608">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -546,6 +546,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -783,6 +789,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -1536,6 +1548,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0010050</t>
   </si>
   <si>
+    <t>pg/ul</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000438</t>
+  </si>
+  <si>
     <t>nM</t>
   </si>
   <si>
@@ -2187,7 +2205,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:15:17-07:00</t>
+    <t>2025-06-10T10:06:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2379,150 +2397,150 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2531,7 +2549,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
@@ -2605,7 +2623,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AF2:AF1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_concentration_unit'!$A$1:$A$2</formula1>
+      <formula1>'library_concentration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AG2:AG1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'library_layout'!$A$1:$A$2</formula1>
@@ -2660,26 +2678,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2697,32 +2715,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2740,22 +2758,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2773,26 +2791,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2810,27 +2828,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2848,42 +2866,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2901,18 +2919,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2930,18 +2948,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2959,18 +2977,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +2998,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2988,18 +3006,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +3035,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3341,6 +3367,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3358,18 +3392,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3387,250 +3421,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3648,138 +3682,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -3797,12 +3831,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3820,210 +3854,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4041,74 +4075,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4126,146 +4160,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -4283,90 +4317,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -4390,30 +4424,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -4431,130 +4465,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4572,12 +4606,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4587,7 +4621,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4595,210 +4629,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4816,546 +4858,546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5373,42 +5415,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5426,26 +5468,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5463,42 +5505,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="614">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -795,6 +795,12 @@
     <t>https://identifiers.org/RRID:SCR_027007</t>
   </si>
   <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -948,6 +954,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -1698,6 +1710,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000439</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
   </si>
   <si>
@@ -2205,7 +2223,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-10T10:06:15-07:00</t>
+    <t>2025-06-10T14:22:50-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2406,127 +2424,127 @@
         <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2">
@@ -2534,7 +2552,7 @@
         <v>62</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -2549,10 +2567,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$28</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$69</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2637,7 +2655,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$31</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$32</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2678,26 +2696,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2715,32 +2733,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2758,22 +2776,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2791,26 +2809,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2828,27 +2846,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2866,42 +2884,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2919,18 +2937,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2948,18 +2966,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2977,18 +2995,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -3006,26 +3024,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3392,18 +3410,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3413,7 +3431,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3421,250 +3439,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -3682,138 +3708,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -3854,210 +3880,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4075,26 +4101,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
@@ -4107,42 +4133,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4160,146 +4186,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -4317,90 +4343,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -4424,16 +4450,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2">
@@ -4441,13 +4467,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -4621,7 +4647,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4843,6 +4869,14 @@
         <v>178</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4850,7 +4884,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4858,546 +4892,554 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>154</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>296</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>297</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5415,42 +5457,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5468,26 +5510,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5505,42 +5547,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -47,106 +47,112 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
@@ -178,8 +184,10 @@
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) Position in the read at which the UMI barcode starts. This should be
-included when constructing sequencing libraries with a non-commercial kit.</t>
+        <t>(Required) The position within a sequencing read where the Unique Molecular
+Identifier (UMI) sequence begins. UMIs are short, random nucleotide sequences
+added to DNA or RNA fragments during library preparation to uniquely tag each
+original molecule. If no UMI is used, enter "Not applicable". Example: 16</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -378,8 +386,8 @@
     </comment>
     <comment ref="AV1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -388,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="657">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -414,34 +422,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -450,36 +596,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -510,16 +626,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -528,30 +638,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -582,18 +674,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -606,12 +686,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -624,34 +698,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -915,12 +971,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -1068,6 +1136,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1146,6 +1220,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1182,6 +1262,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1272,6 +1358,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1296,6 +1385,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1308,6 +1409,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1332,6 +1439,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1758,6 +1871,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000460</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
   </si>
   <si>
@@ -1791,6 +1910,12 @@
     <t>sample_indexing_kit</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium i7 Multiplex Kit, 96 rxns; PN 120262</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000461</t>
+  </si>
+  <si>
     <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
   </si>
   <si>
@@ -2013,6 +2138,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (300 Cycles); PN 20028400</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000459</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
   </si>
   <si>
@@ -2169,6 +2300,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
   </si>
   <si>
@@ -2223,7 +2360,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-10T14:22:50-07:00</t>
+    <t>2025-10-17T11:51:05-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2415,150 +2552,150 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>605</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>606</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2567,10 +2704,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$28</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$69</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2655,10 +2792,10 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$32</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2668,7 +2805,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$26</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2677,7 +2814,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$11</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2696,26 +2833,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2733,32 +2870,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>352</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2776,22 +2913,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2809,26 +2946,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2846,27 +2983,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>359</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2884,42 +3021,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>362</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>366</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>370</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2937,18 +3074,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>375</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>377</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2966,18 +3103,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>377</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2995,18 +3132,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>377</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3024,26 +3161,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>389</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>391</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>393</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3190,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3393,6 +3530,70 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3410,18 +3611,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>396</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>398</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3439,258 +3640,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>403</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>405</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>409</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>411</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>413</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>415</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>417</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>419</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>421</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>423</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>425</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>427</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>429</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>431</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>433</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>435</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>437</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>439</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>443</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>445</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>447</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>449</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>451</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>453</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>455</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>457</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>459</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>461</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>463</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>465</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3909,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3708,138 +3917,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>468</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>469</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>470</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>472</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>474</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>476</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>478</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>480</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>482</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>452</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>453</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>486</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>488</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>490</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>492</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>494</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>496</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -3857,12 +4074,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +4089,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3880,210 +4097,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>502</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>504</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>506</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>508</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>510</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>512</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>514</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>516</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>518</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>520</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>522</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>524</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>526</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>527</v>
+        <v>566</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>528</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>530</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>453</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>532</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>534</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>536</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>538</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>540</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>542</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>544</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>546</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>548</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>550</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4101,74 +4326,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>556</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>558</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>560</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -4186,146 +4411,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>563</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>565</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>307</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>567</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>569</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>570</v>
+        <v>611</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>571</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>572</v>
+        <v>613</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>573</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>575</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>577</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>579</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>580</v>
+        <v>621</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>581</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>583</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>584</v>
+        <v>625</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>585</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>586</v>
+        <v>627</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>587</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -4335,7 +4560,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4343,90 +4568,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>590</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>592</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>461</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>448</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>449</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>594</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>595</v>
+        <v>636</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>596</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>598</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>599</v>
+        <v>640</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>600</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>452</v>
+        <v>642</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>453</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>601</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>602</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>604</v>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4450,30 +4683,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>607</v>
+        <v>650</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>610</v>
+        <v>653</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>612</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>613</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -4491,130 +4724,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4632,12 +4865,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4647,7 +4880,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4655,226 +4888,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>180</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4892,554 +5141,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>156</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>307</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>317</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5457,42 +5770,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>325</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5510,26 +5823,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5547,42 +5860,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -157,29 +157,30 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) Positions in the read at which the cell or capture spot barcodes
-start. Cell and capture spot barcodes are, for example, 3 x 8 bp sequences that
-are spaced by constant sequences (the offsets). First barcode at position 0,
-then 38, then 76. This should be included when constructing sequencing libraries
-with a non-commercial kit.</t>
+        <t>(Required) The position within a sequencing read where a barcode sequence
+begins. In sequencing libraries, barcodes—short DNA sequences used to tag
+individual cells or molecules—are often arranged in a pattern where each barcode
+is separated by a constant sequence of known length. These constant sequences
+create predictable spacing between barcodes, known as offsets. For example, if
+barcodes are 8 base pairs (bp) long and separated by 30 bp constant regions, the
+barcodes might start at positions 0, 38, and 76 within the read. If the source
+material is not barcoded, this field should be marked as "Not applicable".
+Example: 0,38,76</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) Which read file contains the cell or capture spot barcode. This
-should be included when constructing sequencing libraries with a non-commercial
-kit. This field is required if the source material is barcoded. This field is
-used to determine which analysis pipeline to run.</t>
+        <t>(Required) The sequencing read file contains the cell or capture spot barcode
+sequences. This information is essential when constructing sequencing libraries
+with a non-commercial kit, as it ensures that barcodes are correctly extracted
+during data processing. If the source material is not barcoded, this field
+should be marked as "Not applicable". Example: Read 1 (R1)</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) Length of the cell or capture spot barcode in base pairs. Cell and
-capture spot barcodes are, for example, 3 x 8 bp sequences that are spaced by
-constant sequences, the offsets. This should be included when constructing
-sequencing libraries with a non-commercial kit. This field is required if the
-source material is barcoded.  This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The length of each cell or capture spot barcode in base pairs (bp).
+If the source material is not barcoded, enter "Not applicable". Example: 16</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
@@ -192,86 +193,90 @@
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>(Required) Which read file contains the UMI barcode. This should be included
-when constructing sequencing libraries with a non-commercial kit.</t>
+        <t>(Required) Specifies which sequencing read file contains the Unique Molecular
+Identifier (UMI) barcode. If no UMI is used, enter "Not applicable". Example:
+Read 1 (R1)</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) Length of the umi barcode in base pairs. This should be included when
-constructing sequencing libraries with a non-commercial kit. This field is
-required if UMI are present. This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The length of the Unique Molecular Identifier (UMI) in base pairs
+(bp). If no UMI is used, enter "Not applicable". Example: 8</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) This is the entity from which the analyte is being captured. For
-example, for bulk sequencing this would be "tissue", while it would be "single
-cell" for single cell sequencing. This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The entity from which the analyte is captured. For example, in bulk
+sequencing, the source entity would be "tissue" while in single-cell sequencing,
+it would be "single cell". Example: single cell</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>How many cells or nuclei were input to the assay? This is typically not
-available for preparations working with bulk tissue.</t>
+        <t>The number of cells or nuclei that were input into the assay. This information
+is typically not available for assays performed on bulk tissue preparations, and
+therefore this field may be left blank. Example: 1000</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>The amount of RNA or DNA input to the assay, typically measured by a Qubit,
-BioAnalyzer, or TapeStation. In most single cell/nuclei assays, this value isn't
-available.</t>
+        <t>The amount of RNA or DNA input into the assay, typically measured using
+instruments such as a Qubit, BioAnalyzer, or TapeStation. In most single-cell or
+single-nucleus assays, this value is usually not available, and therfore this
+field may be left blank. Example: 500</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>Units of amount of entity input to assay value</t>
+        <t>The unit of measurement used to specify the amount of input analyte value. If no
+input amount, this field may be left blank. Example: ng</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>(Required) 5’ and/or 3’ read adapter sequences used as part of the library
-preparation protocol to render the library compatible with the sequencing
-protocol and instrumentation. This should be provided as comma-separated list of
-key:value pairs (adapter name:sequence).</t>
+        <t>(Required) The 5' and/or 3' adapter sequences used during library preparation to
+make the library compatible with the sequencing protocol and instrumentation.
+Adapter sequences should be provided as a comma-separated list of key-value
+pairs in the format: "adapter name: sequence". Example: Nextera Read 1:
+CTGTCTCTTATACACATCT</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>(Required) Average size of sequencing library fragments estimated via gel
-electrophoresis or bioanalyzer/tapestation. Numeric value in base pairs (bp).</t>
+        <t>(Required) The average size of sequencing library fragments, measured in base
+pairs (bp), as estimated by gel electrophoresis, BioAnalyzer, or TapeStation.
+Example: 200</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
         <t>(Required) The amount of cDNA, after amplification, that was used for library
-construction.</t>
+construction. Example: 60</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="1">
       <text>
-        <t>(Required) unit of library input amount value</t>
+        <t>(Required) The unit of measurement used to specify the library input amount
+value. Example: ng</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>Total amount (eg. nanograms) of library after the clean-up step of final pcr
-amplification step. Answer the question: What is the Qubit measured
-concentration (ng/ul) times the elution volume (ul) after the final clean-up
-step?</t>
+        <t>The total amount of library following the clean-up step after the final PCR
+amplification. To calculate, multiply the Qubit-measured concentration (ng/µl)
+by the elution volume (µl) obtained after the final clean-up. Example: 125</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
       <text>
-        <t>Units of library final yield.</t>
+        <t>The unit of measurement used to specify the library output amount value.
+Example: ng</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="1">
       <text>
-        <t>(Required) The concentration value of the pooled library samples submitted for
-sequencing.</t>
+        <t>(Required) The concentration of the pooled library submitted for sequencing.
+Example: 2.5</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="1">
@@ -281,107 +286,123 @@
     </comment>
     <comment ref="AG1" authorId="1">
       <text>
-        <t>(Required) Whether the library was generated for single-end or paired end
-sequencing</t>
+        <t>(Required) Indicates whether the sequencing library was prepared for single-end
+or paired-end sequencing. This information determines how reads are generated
+and aligned during data processing. Example: single-end</t>
       </text>
     </comment>
     <comment ref="AH1" authorId="1">
       <text>
-        <t>(Required) This is the amplification of the cDNA prior to library construction.
-This is typically a PCR amplification, while for linear amplification methods
-like aRNA this would be the number of rounds of aRNA.</t>
+        <t>(Required) The number of amplification cycles applied to cDNA prior to library
+construction. This is typically the number of PCR cycles used. For protocols
+using linear amplification methods (e.g., aRNA), this refers to the number of
+amplification rounds performed. Example: 3</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="1">
       <text>
-        <t>(Required) Number of PCR cycles performed in order to add adapters and amplify
-the library. This does not include the cDNA amplification which is captured in
-the "number of iterations of cDNA amplification" field.</t>
+        <t>(Required) The number of PCR cycles used specifically to add sequencing adapters
+and amplify the library during the indexing step. This count does not include
+earlier cDNA amplification cycles, which are recorded separately under the
+"Number of iterations of cDNA amplification" field. Example: 8</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="1">
       <text>
-        <t>(Required) Reagent kit used for library preparation</t>
+        <t>(Required) The reagent kit used to construct the sequencing library, including
+both the kit name and, if available, version and product number. If the library
+was prepared using a custom protocol, enter “Custom”. Example: 10X Genomics;
+Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
       </text>
     </comment>
     <comment ref="AK1" authorId="1">
       <text>
-        <t>(Required) Indexes are needed for multiplexing sequencing libraries for
-simultaneous sequencing (pooling) and proper attachment to the Illumina
-flowcell. Each indexing kit would have a number of compatible sequences ("sample
-indexing sets") that are used to label some number of samples (the number of
-sets depend on the kit).</t>
+        <t>(Required) The reagent kit used to add index sequences to samples. Indexes
+enable multiplexing, allowing multiple libraries to be pooled and sequenced
+together on the same Illumina flow cell. Each indexing kit includes a set of
+compatible index sequences (often called "indexing sets") used to uniquely label
+a specific number of samples, depending on the kit’s design. If the library was
+prepared using a custom protocol, enter “Custom”. If no indexing was performed,
+enter "Not applicable". Example: 10X Genomics; Dual Index Kit TS, Set A; PN
+1000251</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="1">
       <text>
-        <t>(Required) The specific sequencing barcode index set used, selected from the
-sample indexing kit. Example: For 10X this might be "SI-GA-A1", for Nextera
-"N505 - CTCCTTAC"</t>
+        <t>(Required) The specific sequencing barcode index set used, chosen from the
+sample indexing kit. For example, in the case of 10x, this might be "SI-GA-A1",
+whereas for Nextera, it could be "N505 - CTCCTTAC". Example: SI-GA-A1</t>
       </text>
     </comment>
     <comment ref="AM1" authorId="1">
       <text>
-        <t>(Required) Is the sequencing reaction run in replicate, "Yes" or "No". If "Yes",
-FASTQ files in dataset need to be merged.</t>
+        <t>(Required) Indicates whether the sequencing reaction was run in replicate. If
+"Yes," the corresponding FASTQ files in the dataset should be merged for
+analysis. Example: Yes</t>
       </text>
     </comment>
     <comment ref="AN1" authorId="1">
       <text>
-        <t>Number of cells, nuclei or capture spots expected to be captured by the assay.
-For Visium this is the total number of spots covered by tissue, within the
-capture area.</t>
+        <t>The number of cells, nuclei, or capture spots expected to be captured by the
+assay. Example: 14336</t>
       </text>
     </comment>
     <comment ref="AO1" authorId="1">
       <text>
-        <t>(Required) Reagent kit used for sequencing</t>
+        <t>(Required) The reagent kit used to perform the sequencing run, including the
+platform, kit name, version, and product number when available. If the reagent
+kit was prepared using a custom protocol, enter “Custom”. Example: Illumina;
+NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
       </text>
     </comment>
     <comment ref="AP1" authorId="1">
       <text>
-        <t>(Required) Number of sequencing cycles in each round of sequencing (i.e., Read1,
-i7 index, i5 index, and Read2). This is reported as a comma-delimited list.
-Example: For 10X snATAC-seq (R1,Index,R2,R3) this might be: 50,8,16,50. For
-SNARE-seq2 this might be: 75,94,8,75</t>
+        <t>(Required) The number of sequencing cycles for each read and index in the
+sequencing run, typically reported as a comma-separated list in the order: Read
+1, i7 index, i5 index, and Read 2. Example: 50,8,16,50</t>
       </text>
     </comment>
     <comment ref="AQ1" authorId="1">
       <text>
-        <t>The ID for the sequencing run. This could, for example, be the chip ID and
-should allow users the ability to determine which samples were processed
-together in a sequencing run. It is recommended that data providers prefix the
-ID with the center name, to prevent values overlapping across centers.</t>
+        <t>A lab-assigned identifier for the sequencing run, such as a chip ID, that
+enables users to determine which samples were processed together. To avoid ID
+conflicts across institutions, it is recommended to prefix the ID with the name
+of the sequencing center. Example: Broad_Chip1234</t>
       </text>
     </comment>
     <comment ref="AR1" authorId="1">
       <text>
-        <t>A lab-generated ID to identify which cells were captured at the same time. This
-would, for example, be an ID to denote which datasets were derived from a single
-10X Genomics Chromium Controller run. In the case of the 10X Controller this
-could be the chip ID and would allow users the ability to determine which
-samples were processed together in a Chromium controller. It is recommended that
-data providers prefix the ID with the center name, to prevent values overlapping
-across centers.</t>
+        <t>A lab-assigned identifier used to indicate which cells or nuclei were captured
+together in the same run. For example, in a 10X Genomics Chromium Controller
+workflow, this could be the chip ID used to trace datasets derived from a single
+capture event. This ID helps users identify samples processed together on the
+same device. To avoid conflicts across institutions, it is recommended to prefix
+the ID with the name of the sequencing center. Example: Broad_Batch1234</t>
       </text>
     </comment>
     <comment ref="AS1" authorId="1">
       <text>
-        <t>The manufacturer of the instrument used to prepare (staining/processing) the
-sample for the assay. If an automatic slide staining method was indicated this
-field should list the manufacturer of the instrument.</t>
+        <t>The company that manufactures the instrument used to prepare the sample (e.g.,
+for staining or other processing steps) prior to the assay. If the instrument
+was custom-built or developed internally, enter "In-House". If no sample
+preparation occurred, enter "Not applicable". Example: 10X Genomics</t>
       </text>
     </comment>
     <comment ref="AT1" authorId="1">
       <text>
-        <t>Manufacturers of a staining system instrument may offer various versions
-(models) of that instrument with different features. Differences in features or
-sensitivities may be relevant to processing or interpretation of the data.</t>
+        <t>The specific model of the instrument used for sample preparation, such as
+staining. Manufacturers may offer multiple models with varying features or
+sensitivities, which can influence how the sample is processed and how the
+resulting data is interpreted. If no sample preparation occurred, enter "Not
+applicable". Example: Chromium X</t>
       </text>
     </comment>
     <comment ref="AU1" authorId="1">
       <text>
-        <t>The reagent kit used with the preparation instrument.</t>
+        <t>The reagent kit used in conjunction with the preparation instrument for sample
+processing (e.g., staining or labeling). If the reagent kit was prepared using a
+custom protocol, enter “Custom”. Example: 10X Genomics; Chromium Next GEM Chip G
+Single Cell Kit, 48 rxns; PN 1000120</t>
       </text>
     </comment>
     <comment ref="AV1" authorId="1">
@@ -396,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="662">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1529,6 +1550,9 @@
     <t>10,48,86</t>
   </si>
   <si>
+    <t>0,20-23,41-44</t>
+  </si>
+  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -2018,6 +2042,12 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (100 Cycle); PN 20125967</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000463</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
   </si>
   <si>
@@ -2042,6 +2072,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (200 Cycle); PN 20125968</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000464</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
   </si>
   <si>
@@ -2360,7 +2396,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-17T11:51:05-07:00</t>
+    <t>2025-10-21T12:14:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2585,103 +2621,103 @@
         <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2">
@@ -2689,7 +2725,7 @@
         <v>90</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +2760,7 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$8</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -2805,7 +2841,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$27</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2833,10 +2869,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
@@ -2849,10 +2885,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2870,27 +2906,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
@@ -2918,12 +2954,12 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
@@ -2946,10 +2982,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
@@ -2962,10 +2998,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2988,17 +3024,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
@@ -3021,42 +3057,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3074,18 +3110,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3103,18 +3139,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3132,18 +3168,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3161,26 +3197,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3611,18 +3647,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3640,266 +3676,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -3917,18 +3953,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3">
@@ -3941,122 +3977,122 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4089,7 +4125,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4097,218 +4133,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>488</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>572</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>573</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>591</v>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -4358,18 +4410,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4442,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4427,10 +4479,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4">
@@ -4443,10 +4495,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6">
@@ -4467,90 +4519,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -4568,98 +4620,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -4683,16 +4735,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2">
@@ -4700,13 +4752,13 @@
         <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -5852,7 +5904,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5895,6 +5947,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>210</v>
       </c>
     </row>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="666">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1859,6 +1859,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000467</t>
+  </si>
+  <si>
     <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
   </si>
   <si>
@@ -1925,6 +1931,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000466</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
   </si>
   <si>
@@ -2396,7 +2408,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-21T12:14:03-07:00</t>
+    <t>2025-10-24T14:05:07-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2684,40 +2696,40 @@
         <v>437</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2">
@@ -2725,7 +2737,7 @@
         <v>90</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2840,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$33</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$18</formula1>
@@ -3668,7 +3680,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3936,6 +3948,22 @@
       </c>
       <c r="B33" t="s" s="0">
         <v>503</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -3953,18 +3981,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3">
@@ -3977,122 +4005,122 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4133,234 +4161,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4410,18 +4438,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7">
@@ -4442,10 +4470,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4479,10 +4507,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4">
@@ -4495,10 +4523,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6">
@@ -4519,90 +4547,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -4620,98 +4648,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -4735,16 +4763,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2">
@@ -4752,13 +4780,13 @@
         <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="674">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1775,6 +1775,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000175</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000471</t>
+  </si>
+  <si>
     <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
   </si>
   <si>
@@ -1847,6 +1853,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000110</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000469</t>
+  </si>
+  <si>
     <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
   </si>
   <si>
@@ -2000,6 +2012,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium i7 Multiplex Kit N, Set A, 96 rxn; PN 1000084</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000468</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
   </si>
   <si>
@@ -2336,42 +2354,54 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000470</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000378</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000368</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000379</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
-  </si>
-  <si>
-    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
-  </si>
-  <si>
     <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000400</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000378</t>
-  </si>
-  <si>
     <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
   </si>
   <si>
@@ -2384,12 +2414,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000325</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000368</t>
-  </si>
-  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -2408,7 +2432,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-24T14:05:07-07:00</t>
+    <t>2025-10-29T11:31:13-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2696,40 +2720,40 @@
         <v>437</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2">
@@ -2737,7 +2761,7 @@
         <v>90</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -2840,10 +2864,10 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$35</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$37</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$18</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2856,13 +2880,13 @@
       <formula1>'sequencing_reagent_kit'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$12</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3680,7 +3704,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3966,6 +3990,22 @@
         <v>507</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3973,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3981,18 +4021,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
@@ -4005,122 +4045,130 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4161,234 +4209,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4398,7 +4446,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4438,18 +4486,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7">
@@ -4470,10 +4518,18 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>609</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>610</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4539,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4507,10 +4563,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4">
@@ -4523,114 +4579,122 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>263</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>616</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>617</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>637</v>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -4640,7 +4704,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4648,98 +4712,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>486</v>
+        <v>651</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>487</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>647</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>648</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>656</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -4763,16 +4835,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2">
@@ -4780,13 +4852,13 @@
         <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>665</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="676">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -485,6 +485,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -740,18 +746,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -2432,7 +2438,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-29T11:31:13-07:00</t>
+    <t>2025-11-19T14:39:55-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2624,150 +2630,150 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2880,7 +2886,7 @@
       <formula1>'sequencing_reagent_kit'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$10</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
@@ -2905,26 +2911,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2942,32 +2948,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2985,22 +2991,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3018,26 +3024,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3055,27 +3061,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3093,42 +3099,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3146,18 +3152,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3175,18 +3181,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3204,18 +3210,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3233,26 +3239,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3268,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3666,6 +3672,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3683,18 +3697,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3712,298 +3726,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -4021,154 +4035,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4186,12 +4200,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4209,234 +4223,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -4446,7 +4460,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4454,82 +4468,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>615</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>616</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -4547,154 +4569,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -4712,106 +4734,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -4835,30 +4857,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -4876,130 +4898,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5017,12 +5039,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5040,242 +5062,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5293,618 +5315,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5922,42 +5944,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5975,26 +5997,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6012,47 +6034,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
+++ b/rnaseq/v5.0.0/rnaseq-v5.0.0.xlsx
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="678">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -746,6 +746,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -2438,7 +2444,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:39:55-08:00</t>
+    <t>2025-11-20T09:40:56-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2633,133 +2639,133 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2">
@@ -2767,7 +2773,7 @@
         <v>92</v>
       </c>
       <c r="AV2" t="s" s="49">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2782,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2911,26 +2917,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2948,32 +2954,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2991,22 +2997,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3024,26 +3030,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3061,27 +3067,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3099,42 +3105,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3152,18 +3158,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3181,18 +3187,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3210,18 +3216,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3239,26 +3245,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -3697,18 +3703,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -3726,298 +3732,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4035,154 +4041,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4200,12 +4206,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4223,234 +4229,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4468,90 +4474,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -4569,154 +4575,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4734,106 +4740,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -4857,16 +4863,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2">
@@ -4874,13 +4880,13 @@
         <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4896,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5022,6 +5028,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5039,12 +5053,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5062,242 +5076,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5315,474 +5329,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -5790,143 +5804,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5944,42 +5958,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5997,26 +6011,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6034,47 +6048,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
